--- a/biology/Zoologie/Chien_sauvage/Chien_sauvage.xlsx
+++ b/biology/Zoologie/Chien_sauvage/Chien_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression « chien sauvage » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de canidés :
-le Chien sauvage d'Afrique, Chien sauvage africain ou Lycaon (Lycaon pictus)[1],[2] ;
-le Chien sauvage d'Asie ou Dhole (Cuon alpinus)[1],[3] ;
-le Chien sauvage d'Australie ou Dingo (Canis dingo)[4].
+le Chien sauvage d'Afrique, Chien sauvage africain ou Lycaon (Lycaon pictus), ;
+le Chien sauvage d'Asie ou Dhole (Cuon alpinus), ;
+le Chien sauvage d'Australie ou Dingo (Canis dingo).
 			Chien sauvage d'Afrique (Lycaon pictus)
 			Chien sauvage d'Asie (Cuon alpinus)
 			Chien sauvage d'Australie (Canis dingo)
@@ -517,7 +529,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chiens sauvages
 Le Dingo un chien sauvage
